--- a/public/plugin/xls/Surat Keterangan Tidak Memiliki Buku Nikah.xlsx
+++ b/public/plugin/xls/Surat Keterangan Tidak Memiliki Buku Nikah.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa\public\plugin\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps-desa-dukuh\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D22988-BD90-4335-9E50-289719618471}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EF8C17-E9CD-423F-9869-49AE331C2AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,19 +81,19 @@
     <t xml:space="preserve">      Demikian Surat Keterangan ini dibuat dengan sebenarnya, kepada pihak yang berkepentingan agar mengetahui dan maklum adanya.</t>
   </si>
   <si>
-    <t>DESA CIMANGGU I</t>
-  </si>
-  <si>
-    <t>Jl. Gardu Seri Ciaruteun Rt.004 Rw.008 Desa Cimanggu Satu Kecamatan Cibungbulang 16630 Bogor</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Yang bertanda tangan di bawah ini Kepala Desa Cimanggu Satu Kecamatan Cibungbulang Kabupaten Bogor, menerangkan dengan sebenarnya bahwa :</t>
   </si>
   <si>
-    <t xml:space="preserve">Cimanggu, </t>
-  </si>
-  <si>
     <t>Indonesia</t>
+  </si>
+  <si>
+    <t>DESA DUKUH</t>
+  </si>
+  <si>
+    <t>Jl Raya Galuga - Cijujung Km.2 Kec Cibungbulang Kab. Bogor Pos 16330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dukuh, </t>
   </si>
 </sst>
 </file>
@@ -138,9 +138,7 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="8"/>
-      <color theme="1"/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -186,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -212,29 +210,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -312,9 +313,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -352,7 +353,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -458,7 +459,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -600,7 +601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -610,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C28E0B9-CBCF-4415-8AE6-496673EECDF9}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:I20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -628,75 +629,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="C4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H9" s="2"/>
@@ -705,16 +706,16 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="B11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -729,10 +730,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
@@ -742,10 +743,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
@@ -755,10 +756,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
@@ -769,10 +770,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
@@ -782,10 +783,10 @@
         <v>7</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
@@ -795,10 +796,10 @@
         <v>7</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
@@ -808,12 +809,12 @@
         <v>7</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="F20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
@@ -824,10 +825,10 @@
         <v>7</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
@@ -849,10 +850,10 @@
         <v>7</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
@@ -862,10 +863,10 @@
         <v>7</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
@@ -875,10 +876,10 @@
         <v>7</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
@@ -888,10 +889,10 @@
         <v>7</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
@@ -901,10 +902,10 @@
         <v>7</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
@@ -914,10 +915,10 @@
         <v>7</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="4" t="s">
@@ -927,12 +928,12 @@
         <v>7</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="F29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
@@ -942,22 +943,22 @@
         <v>7</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
     </row>
     <row r="33" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
@@ -966,67 +967,63 @@
       <c r="D34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="37" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G40" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="12"/>
+      <c r="G40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="F34:I34"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="B11:I11"/>
@@ -1043,12 +1040,16 @@
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="C37:I37"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.62992125984251968" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
